--- a/成果物/20_テーブル定義書/テーブル定義書.xlsx
+++ b/成果物/20_テーブル定義書/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file-srv\share\05_グループ開発\グループD\成果物\20_テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DDF48D-D67A-4EDD-A88E-1C962297C081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB799C-120A-4AFE-A260-6A10B60F21F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4ADD79A1-0143-484A-BF31-5D213F015B0B}"/>
+    <workbookView xWindow="3765" yWindow="225" windowWidth="12645" windowHeight="8895" activeTab="6" xr2:uid="{4ADD79A1-0143-484A-BF31-5D213F015B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -19,22 +19,24 @@
     <sheet name="カレンダー" sheetId="3" r:id="rId4"/>
     <sheet name="カテゴリ" sheetId="4" r:id="rId5"/>
     <sheet name="材料" sheetId="5" r:id="rId6"/>
-    <sheet name="手順" sheetId="6" r:id="rId7"/>
-    <sheet name="レシピ情報" sheetId="7" r:id="rId8"/>
-    <sheet name="レシピとカテゴリ" sheetId="8" r:id="rId9"/>
-    <sheet name="ユーザー情報" sheetId="9" r:id="rId10"/>
-    <sheet name="テストデータ" sheetId="11" r:id="rId11"/>
-    <sheet name="SQL" sheetId="12" r:id="rId12"/>
+    <sheet name="いいねテーブル" sheetId="15" r:id="rId7"/>
+    <sheet name="手順" sheetId="6" r:id="rId8"/>
+    <sheet name="レシピ情報" sheetId="7" r:id="rId9"/>
+    <sheet name="レシピとカテゴリ" sheetId="8" r:id="rId10"/>
+    <sheet name="ユーザー情報" sheetId="9" r:id="rId11"/>
+    <sheet name="テストデータ" sheetId="11" r:id="rId12"/>
+    <sheet name="SQL" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ER図!$A$1:$BA$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">いいねテーブル!$A$1:$G$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">カテゴリ!$A$1:$G$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カレンダー!$A$1:$G$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">ユーザー情報!$A$1:$G$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">レシピとカテゴリ!$A$1:$G$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">レシピ情報!$A$1:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">ユーザー情報!$A$1:$G$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">レシピとカテゴリ!$A$1:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">レシピ情報!$A$1:$G$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">材料!$A$1:$G$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">手順!$A$1:$G$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">手順!$A$1:$G$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AV$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ER図!$2:$5</definedName>
   </definedNames>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="121">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -146,9 +148,6 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2021/06/17</t>
-  </si>
-  <si>
     <t>更新日</t>
   </si>
   <si>
@@ -311,12 +310,6 @@
     <t>overview</t>
   </si>
   <si>
-    <t>いいね数</t>
-  </si>
-  <si>
-    <t>good_total</t>
-  </si>
-  <si>
     <t>投稿日</t>
   </si>
   <si>
@@ -357,9 +350,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>character varying(10)</t>
   </si>
   <si>
     <t>権限ID</t>
@@ -437,10 +427,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Yes (PK)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>ER図</t>
     <rPh sb="2" eb="3">
       <t>ズ</t>
@@ -473,6 +459,41 @@
       <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>名嘉眞</t>
+    <rPh sb="0" eb="3">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>前川</t>
+    <rPh sb="0" eb="2">
+      <t>マエカワ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>いいねテーブル</t>
+  </si>
+  <si>
+    <t>public.good_table</t>
+  </si>
+  <si>
+    <t>2021/06/18</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>good_table</t>
+  </si>
+  <si>
+    <t>good_id</t>
+  </si>
+  <si>
+    <t>いいねID</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1218,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1448,45 +1469,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1502,10 +1502,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1875,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED956B6D-A75B-4380-9F2F-F18CFF788E3C}">
   <dimension ref="A1:BP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1884,7 +1941,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1956,7 +2013,7 @@
     </row>
     <row r="2" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2028,7 +2085,7 @@
     </row>
     <row r="3" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -2100,7 +2157,7 @@
     </row>
     <row r="4" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -2172,7 +2229,7 @@
     </row>
     <row r="5" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -2244,7 +2301,7 @@
     </row>
     <row r="6" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -2315,7 +2372,9 @@
       <c r="BP6" s="37"/>
     </row>
     <row r="7" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="37" t="s">
+        <v>112</v>
+      </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -2385,7 +2444,9 @@
       <c r="BP7" s="37"/>
     </row>
     <row r="8" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -2600,7 +2661,7 @@
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="N11" s="57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O11" s="58"/>
       <c r="P11" s="58"/>
@@ -3734,7 +3795,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="AB32" s="66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AC32" s="66"/>
       <c r="AD32" s="66"/>
@@ -3859,14 +3920,14 @@
       <c r="Z34" s="37"/>
       <c r="AA34" s="37"/>
       <c r="AB34" s="67" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AC34" s="67"/>
       <c r="AD34" s="67"/>
       <c r="AE34" s="67"/>
       <c r="AF34" s="67"/>
       <c r="AG34" s="70" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH34" s="71"/>
       <c r="AI34" s="71"/>
@@ -4259,6 +4320,523 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53CEF6-499F-4DB2-86A5-DA85806C4034}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="16" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="16" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="96"/>
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="97"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="100"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="99"/>
+      <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="100"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="91"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="38"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="38"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="38"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="38"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="38"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="38"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A36" s="23"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A37" s="23"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="23"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="23"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="23"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="23"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="23"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="23"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3DCCF1-6AFB-4486-8238-0BD6947291DF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4287,113 +4865,113 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="91"/>
+      <c r="F3" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="91"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="89"/>
+      <c r="C6" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="99"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="91"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="98"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="91"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4401,19 +4979,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>4</v>
@@ -4424,22 +5002,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -4447,20 +5025,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -4468,20 +5048,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -4489,20 +5071,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4510,20 +5094,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F18" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -4547,8 +5133,8 @@
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="93"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -4584,19 +5170,19 @@
       <c r="A26" s="3"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
@@ -4621,8 +5207,8 @@
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -4648,8 +5234,8 @@
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -4675,8 +5261,8 @@
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
       <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -4708,96 +5294,78 @@
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A40" s="23"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A41" s="23"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A42" s="23"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A43" s="23"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A45" s="23"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A46" s="23"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A47" s="23"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -4814,6 +5382,24 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4825,7 +5411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B9E1A9-57A2-426E-905A-A803E3732A12}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4838,7 +5424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834F45E8-37FC-4757-BEED-9918908D25A4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4875,7 +5461,7 @@
     <row r="1" spans="2:53" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:53" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="72" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -4913,7 +5499,7 @@
       <c r="AJ2" s="73"/>
       <c r="AK2" s="74"/>
       <c r="AL2" s="78" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AM2" s="78"/>
       <c r="AN2" s="78"/>
@@ -4971,7 +5557,7 @@
       <c r="AJ3" s="76"/>
       <c r="AK3" s="77"/>
       <c r="AL3" s="81" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AM3" s="81"/>
       <c r="AN3" s="81"/>
@@ -4979,7 +5565,7 @@
       <c r="AP3" s="81"/>
       <c r="AQ3" s="81"/>
       <c r="AR3" s="82" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AS3" s="82"/>
       <c r="AT3" s="82"/>
@@ -4996,7 +5582,7 @@
     </row>
     <row r="5" spans="2:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="56" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -6855,9 +7441,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6926,10 +7514,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -6938,10 +7526,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -6950,35 +7538,48 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'カレンダー'!A1" display="'カレンダー'!A1" xr:uid="{81F7B381-DD53-4AC2-9C83-25738C743F4D}"/>
-    <hyperlink ref="C4" location="'カテゴリ'!A1" display="'カテゴリ'!A1" xr:uid="{DB7B6E85-FC80-40D2-8C92-3497A3C3A8DB}"/>
-    <hyperlink ref="C5" location="'材料'!A1" display="'材料'!A1" xr:uid="{BB0A3562-CD27-45D9-8CAA-EBEB2E596228}"/>
-    <hyperlink ref="C6" location="'手順'!A1" display="'手順'!A1" xr:uid="{1CBB0753-EC2B-4004-93FD-8682236DDE8B}"/>
-    <hyperlink ref="C7" location="'レシピ情報'!A1" display="'レシピ情報'!A1" xr:uid="{2BCA6A63-E92B-4172-BDCE-A0DBBBA28E9C}"/>
-    <hyperlink ref="C8" location="'レシピとカテゴリ'!A1" display="'レシピとカテゴリ'!A1" xr:uid="{45BEDE42-91DC-44E2-8030-C327E784E58E}"/>
-    <hyperlink ref="C9" location="'ユーザー情報'!A1" display="'ユーザー情報'!A1" xr:uid="{ABE0B51B-2857-497F-975E-E7628979BBF6}"/>
+    <hyperlink ref="C3" location="'カレンダー'!A1" display="'カレンダー'!A1" xr:uid="{57B3BE96-31F3-40EE-8CFF-EE82738D7A29}"/>
+    <hyperlink ref="C4" location="'カテゴリ'!A1" display="'カテゴリ'!A1" xr:uid="{CB5A16A6-FAB3-4B29-A388-CEB36963DBC7}"/>
+    <hyperlink ref="C5" location="'材料'!A1" display="'材料'!A1" xr:uid="{DDB74935-6722-4E80-A1E7-5840CF08BA45}"/>
+    <hyperlink ref="C6" location="'いいねテーブル'!A1" display="'いいねテーブル'!A1" xr:uid="{5612C2B5-DC29-4A3C-915F-479D07CD06F8}"/>
+    <hyperlink ref="C7" location="'手順'!A1" display="'手順'!A1" xr:uid="{14FBEC58-F912-4ECA-827A-A89B4638BC78}"/>
+    <hyperlink ref="C8" location="'レシピ情報'!A1" display="'レシピ情報'!A1" xr:uid="{ABDF434F-8563-4D26-A373-01681C33616A}"/>
+    <hyperlink ref="C9" location="'レシピとカテゴリ'!A1" display="'レシピとカテゴリ'!A1" xr:uid="{18CA38D0-C088-4C78-B5F2-E76C212B9407}"/>
+    <hyperlink ref="C10" location="'ユーザー情報'!A1" display="'ユーザー情報'!A1" xr:uid="{546F15CD-6C8F-4B12-B84A-D5856D676870}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7018,113 +7619,113 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="91"/>
+      <c r="F3" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="91"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="89"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="91"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="98"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="91"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -7132,19 +7733,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>4</v>
@@ -7155,20 +7756,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>117</v>
+      </c>
       <c r="F14" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -7176,20 +7779,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -7197,20 +7802,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>47</v>
-      </c>
       <c r="D16" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7218,20 +7825,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -7283,10 +7892,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
@@ -7311,8 +7920,8 @@
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -7338,8 +7947,8 @@
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -7365,8 +7974,8 @@
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -7398,75 +8007,75 @@
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A37" s="23"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A38" s="23"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A39" s="23"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A40" s="23"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A41" s="23"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A42" s="23"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A43" s="23"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
@@ -7488,22 +8097,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -7520,6 +8113,22 @@
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7560,113 +8169,113 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="91"/>
+      <c r="F3" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="91"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="89"/>
+      <c r="C6" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="99"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="91"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="98"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="91"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -7674,19 +8283,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>4</v>
@@ -7697,22 +8306,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7720,20 +8329,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="D15" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -7757,8 +8368,8 @@
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="93"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -7794,19 +8405,19 @@
       <c r="A23" s="3"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
@@ -7831,8 +8442,8 @@
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -7858,8 +8469,8 @@
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -7885,8 +8496,8 @@
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -7918,75 +8529,75 @@
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A37" s="23"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A38" s="23"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A39" s="23"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A40" s="23"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A41" s="23"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A42" s="23"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A43" s="23"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
@@ -7999,24 +8610,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -8033,6 +8626,24 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8073,113 +8684,113 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="91"/>
+      <c r="F3" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="91"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="89"/>
+      <c r="C6" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="99"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="91"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="98"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="91"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -8187,19 +8798,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>4</v>
@@ -8210,20 +8821,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>60</v>
-      </c>
       <c r="D14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>117</v>
+      </c>
       <c r="F14" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -8231,20 +8844,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>47</v>
-      </c>
       <c r="D15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -8252,20 +8867,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>62</v>
-      </c>
       <c r="D16" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -8273,20 +8890,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -8294,20 +8913,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>66</v>
-      </c>
       <c r="D18" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F18" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -8359,10 +8980,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
@@ -8387,8 +9008,8 @@
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -8414,8 +9035,8 @@
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
       <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -8441,8 +9062,8 @@
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -8474,75 +9095,75 @@
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A38" s="23"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A39" s="23"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A40" s="23"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A41" s="23"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A42" s="23"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A43" s="23"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A45" s="23"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
@@ -8564,22 +9185,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -8596,6 +9201,22 @@
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8608,6 +9229,534 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57735F70-46DB-4E95-B0DD-13018BB1FE33}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="16" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="16" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="96"/>
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="97"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="100"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="99"/>
+      <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="100"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="91"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="107"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="110"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="105"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="107"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="110"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="110"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="110"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="110"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="105"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="107"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="108"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="110"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="105"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="107"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="108"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="110"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="105"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A34" s="107"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="108"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="110"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="105"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="106"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="106"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="106"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="106"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="106"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="106"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A44" s="106"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="106"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3925BD77-44DD-4C63-B267-4BF3BB3134C5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8636,113 +9785,113 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="91"/>
+      <c r="F3" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="91"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="89"/>
+      <c r="C6" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="99"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="91"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="98"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="91"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -8750,19 +9899,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>4</v>
@@ -8773,20 +9922,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="D14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>117</v>
+      </c>
       <c r="F14" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -8794,20 +9945,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>47</v>
-      </c>
       <c r="D15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -8815,20 +9968,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>71</v>
-      </c>
       <c r="D16" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -8836,20 +9991,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>73</v>
-      </c>
       <c r="D17" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -8901,10 +10058,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
@@ -8929,8 +10086,8 @@
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -8956,8 +10113,8 @@
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -8983,8 +10140,8 @@
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -9016,75 +10173,75 @@
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A37" s="23"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A38" s="23"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A39" s="23"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A40" s="23"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A41" s="23"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A42" s="23"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A43" s="23"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
@@ -9097,22 +10254,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -9129,6 +10270,22 @@
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9140,7 +10297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC368A12-DEDC-4537-A596-EB1A2DC8E648}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9169,113 +10326,113 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="91"/>
+      <c r="F3" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="91"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="89"/>
+      <c r="C6" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="99"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="91"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="98"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="91"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -9283,19 +10440,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>4</v>
@@ -9306,22 +10463,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -9329,20 +10486,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -9350,20 +10509,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>76</v>
-      </c>
       <c r="D16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -9371,20 +10532,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -9392,20 +10555,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>81</v>
-      </c>
       <c r="D18" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="F18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -9413,20 +10578,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>83</v>
-      </c>
       <c r="D19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="F19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -9434,41 +10601,45 @@
         <v>7</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="D20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="7">
+        <v>8</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <v>8</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>33</v>
+      <c r="D21" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -9476,20 +10647,20 @@
         <v>9</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -9513,8 +10684,8 @@
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="93"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
@@ -9550,19 +10721,19 @@
       <c r="A30" s="3"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
@@ -9587,8 +10758,8 @@
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -9614,8 +10785,8 @@
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="88"/>
       <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -9641,8 +10812,8 @@
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="88"/>
       <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -9674,96 +10845,78 @@
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A45" s="23"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A46" s="23"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A47" s="23"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
     </row>
     <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A48" s="23"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
     </row>
     <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A49" s="23"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
     </row>
     <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A50" s="23"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
     </row>
     <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A51" s="23"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -9780,6 +10933,24 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9789,515 +10960,4 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53CEF6-499F-4DB2-86A5-DA85806C4034}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G44"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="16" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="16" customWidth="1"/>
-    <col min="5" max="6" width="8.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="90"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="91"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="91"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="91"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="91"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="98"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="10">
-        <v>1</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <v>2</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="7">
-        <v>3</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="38"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="38"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="38"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="38"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="38"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="40"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="38"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="23"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="23"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="23"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="23"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="23"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A42" s="23"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="23"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E29:F29"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>